--- a/docs/wbs.xlsx
+++ b/docs/wbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\speedtest_tool-fastcom\speedtest_tool-fastcom\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\speedtest_tool-fastcom\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E39B0-34F0-42EE-8E29-5E11EA7C11C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F9DF0-C2C7-4133-A421-1BB13C6A4BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A0C597-D634-4F71-82E4-F8443FD63CB3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>出力データ設計</t>
     <rPh sb="0" eb="2">
@@ -106,35 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>抽出した処理分だけモジュールに関数を作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成した関数に処理内容のログ出力を作成（一時的に利用）</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショリナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>イチジテキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了条件</t>
     <rPh sb="0" eb="4">
       <t>カンリョウジョウケン</t>
@@ -202,22 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>抽出した機能と処理をフローチャートを作成</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計書（Markdown）に記載</t>
     <rPh sb="0" eb="3">
       <t>セッケイショ</t>
@@ -228,19 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像生成して設計書（Markdown）に添付</t>
-    <rPh sb="0" eb="4">
-      <t>ガゾウセイセイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>speedtest.net 版ネットワーク速度計測ツールに基づく</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -335,13 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未完了</t>
-    <rPh sb="0" eb="3">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fast.com に pyppeteer でアクセスする</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -562,51 +497,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計測データを記録した csv ファイルの有無確認</t>
-    <rPh sb="0" eb="2">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理フロー通りになっていればOK</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ドオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正常に処理完了でOK</t>
     <rPh sb="0" eb="2">
       <t>セイジョウ</t>
     </rPh>
     <rPh sb="3" eb="7">
       <t>ショリカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定日付のレポート再出力も検討する</t>
-    <rPh sb="0" eb="4">
-      <t>シテイヒヅケ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>サイシュツリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,26 +558,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>csv ファイルの物理的有無と一致していればOK</t>
-    <rPh sb="9" eb="14">
-      <t>ブツリテキウム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1関数1機能になっていればOK</t>
-    <rPh sb="1" eb="3">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -744,7 +620,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -764,6 +670,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -774,6 +683,46 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,23 +738,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{357F0455-590F-40FC-AF43-E15DD541A5F4}" name="ネットワーク速度計測ツールWBS" displayName="ネットワーク速度計測ツールWBS" ref="A1:L21" totalsRowShown="0">
-  <autoFilter ref="A1:L21" xr:uid="{357F0455-590F-40FC-AF43-E15DD541A5F4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{357F0455-590F-40FC-AF43-E15DD541A5F4}" name="ネットワーク速度計測ツールWBS" displayName="ネットワーク速度計測ツールWBS" ref="A1:L17" totalsRowShown="0">
+  <autoFilter ref="A1:L17" xr:uid="{357F0455-590F-40FC-AF43-E15DD541A5F4}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2895A640-55FB-4325-8D43-F7BCCB37AD6F}" name="成果物" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6E3B2D95-C5A2-47D7-B7BA-B1EF813A5829}" name="内容区分" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{7D147178-867D-408D-BA20-A6AFD5178FEF}" name="構成区分" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F50BEED1-A486-4F01-A404-36252334F637}" name="タスク" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C845E535-7669-4F71-AB9E-9B946ACED137}" name="状態"/>
-    <tableColumn id="7" xr3:uid="{D9D3A499-79C9-4054-8EB1-F4A660542DF2}" name="備考" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{12B49D5F-85F8-4FD5-9BD5-56FF07F950CF}" name="開始予定日" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{2BDFDCC8-0E33-4603-8D9D-C7B4C5C58473}" name="完了予定日" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{3F7A8E10-D030-4B9F-9F6B-B6F6ABE69175}" name="開始日" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{EDD2A1F9-A73F-4D86-880D-11AE8B27E448}" name="完了日" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2895A640-55FB-4325-8D43-F7BCCB37AD6F}" name="成果物" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6E3B2D95-C5A2-47D7-B7BA-B1EF813A5829}" name="内容区分" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{7D147178-867D-408D-BA20-A6AFD5178FEF}" name="構成区分" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F50BEED1-A486-4F01-A404-36252334F637}" name="タスク" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C845E535-7669-4F71-AB9E-9B946ACED137}" name="状態" dataDxfId="9">
+      <calculatedColumnFormula>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D9D3A499-79C9-4054-8EB1-F4A660542DF2}" name="備考" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{12B49D5F-85F8-4FD5-9BD5-56FF07F950CF}" name="開始予定日" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2BDFDCC8-0E33-4603-8D9D-C7B4C5C58473}" name="完了予定日" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3F7A8E10-D030-4B9F-9F6B-B6F6ABE69175}" name="開始日" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{EDD2A1F9-A73F-4D86-880D-11AE8B27E448}" name="完了日" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{4291AB89-2D21-4414-9B85-7BBB36F67076}" name="遅れ"/>
-    <tableColumn id="13" xr3:uid="{C395D242-CDC1-401F-B549-65938BFB7D74}" name="完了条件" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{C395D242-CDC1-401F-B549-65938BFB7D74}" name="完了条件" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1106,11 +1057,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA97FDD-E85E-4243-BD6A-7552571E7563}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,42 +1074,42 @@
     <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,19 +1117,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
         <v>31</v>
       </c>
+      <c r="E2" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>完了</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2">
         <v>44608</v>
@@ -1188,13 +1138,17 @@
       <c r="H2" s="2">
         <v>44608</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="2">
+        <v>44608</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44608</v>
+      </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,19 +1156,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>完了</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
         <v>44608</v>
@@ -1222,13 +1177,17 @@
       <c r="H3" s="2">
         <v>44608</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2">
+        <v>44608</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44608</v>
+      </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,19 +1195,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>完了</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2">
         <v>44608</v>
@@ -1256,13 +1216,17 @@
       <c r="H4" s="2">
         <v>44608</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2">
+        <v>44608</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44608</v>
+      </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,19 +1234,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>完了</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
         <v>44608</v>
@@ -1290,13 +1255,17 @@
       <c r="H5" s="2">
         <v>44608</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2">
+        <v>44608</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44608</v>
+      </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,19 +1273,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>完了</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
         <v>44608</v>
@@ -1324,13 +1294,17 @@
       <c r="H6" s="2">
         <v>44608</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2">
+        <v>44608</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44608</v>
+      </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,33 +1312,36 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>完了</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="2">
         <v>44608</v>
       </c>
       <c r="H7" s="2">
         <v>44608</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2">
+        <v>44608</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44608</v>
+      </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,31 +1349,32 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未着手</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="H8" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,31 +1382,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未着手</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="H9" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,31 +1415,34 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
         <v>44608</v>
       </c>
       <c r="H10" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44608</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,31 +1450,34 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2">
         <v>44608</v>
       </c>
       <c r="H11" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44608</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,31 +1485,34 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2">
         <v>44608</v>
       </c>
       <c r="H12" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44608</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,31 +1520,34 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2">
         <v>44608</v>
       </c>
       <c r="H13" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44608</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,31 +1555,34 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2">
         <v>44608</v>
       </c>
       <c r="H14" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44608</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,31 +1590,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
         <v>44608</v>
       </c>
       <c r="H15" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44608</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1628,31 +1625,34 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未完了</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2">
         <v>44608</v>
       </c>
       <c r="H16" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>44609</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44608</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,163 +1660,47 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
+        <v>未着手</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="H17" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H18" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H19" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H20" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H21" s="2">
-        <v>44608</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E2:E17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"未完了"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"未着手"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/docs/wbs.xlsx
+++ b/docs/wbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\speedtest_tool-fastcom\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ETTSU-StarTail\speedtest_tool-fastcom\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F9DF0-C2C7-4133-A421-1BB13C6A4BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4595E9-3426-4D7E-BBCE-65B3D13CD2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A0C597-D634-4F71-82E4-F8443FD63CB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A0C597-D634-4F71-82E4-F8443FD63CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -683,46 +683,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1359,17 +1319,19 @@
       </c>
       <c r="E8" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2">
         <v>44609</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>44609</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>44609</v>
+      </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1354,7 @@
       </c>
       <c r="E9" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2">
@@ -1401,8 +1363,12 @@
       <c r="H9" s="2">
         <v>44609</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2">
+        <v>44609</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44609</v>
+      </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1391,7 @@
       </c>
       <c r="E10" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>完了</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
@@ -1437,7 +1403,9 @@
       <c r="I10" s="2">
         <v>44608</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>44609</v>
+      </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
@@ -1460,18 +1428,16 @@
       </c>
       <c r="E11" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>未着手</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="H11" s="2">
-        <v>44609</v>
-      </c>
-      <c r="I11" s="2">
-        <v>44608</v>
-      </c>
+        <v>44610</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" t="s">
         <v>15</v>
@@ -1495,18 +1461,16 @@
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>未着手</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="H12" s="2">
-        <v>44609</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44608</v>
-      </c>
+        <v>44610</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" t="s">
         <v>15</v>
@@ -1530,18 +1494,16 @@
       </c>
       <c r="E13" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>未着手</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="H13" s="2">
-        <v>44609</v>
-      </c>
-      <c r="I13" s="2">
-        <v>44608</v>
-      </c>
+        <v>44610</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
         <v>15</v>
@@ -1565,18 +1527,16 @@
       </c>
       <c r="E14" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>未着手</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="H14" s="2">
-        <v>44609</v>
-      </c>
-      <c r="I14" s="2">
-        <v>44608</v>
-      </c>
+        <v>44610</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
         <v>15</v>
@@ -1600,18 +1560,16 @@
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>未着手</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="H15" s="2">
-        <v>44609</v>
-      </c>
-      <c r="I15" s="2">
-        <v>44608</v>
-      </c>
+        <v>44610</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
         <v>15</v>
@@ -1635,18 +1593,16 @@
       </c>
       <c r="E16" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未完了</v>
+        <v>未着手</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="H16" s="2">
-        <v>44609</v>
-      </c>
-      <c r="I16" s="2">
-        <v>44608</v>
-      </c>
+        <v>44610</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
         <v>15</v>
@@ -1674,10 +1630,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="H17" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1702,7 +1658,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/docs/wbs.xlsx
+++ b/docs/wbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ETTSU-StarTail\speedtest_tool-fastcom\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\speedtest_tool-fastcom\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4595E9-3426-4D7E-BBCE-65B3D13CD2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480DB27-5DA9-4534-89A7-A1EA87B12DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A0C597-D634-4F71-82E4-F8443FD63CB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A0C597-D634-4F71-82E4-F8443FD63CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,36 +622,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -684,6 +654,36 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -701,20 +701,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{357F0455-590F-40FC-AF43-E15DD541A5F4}" name="ネットワーク速度計測ツールWBS" displayName="ネットワーク速度計測ツールWBS" ref="A1:L17" totalsRowShown="0">
   <autoFilter ref="A1:L17" xr:uid="{357F0455-590F-40FC-AF43-E15DD541A5F4}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2895A640-55FB-4325-8D43-F7BCCB37AD6F}" name="成果物" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6E3B2D95-C5A2-47D7-B7BA-B1EF813A5829}" name="内容区分" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{7D147178-867D-408D-BA20-A6AFD5178FEF}" name="構成区分" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F50BEED1-A486-4F01-A404-36252334F637}" name="タスク" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C845E535-7669-4F71-AB9E-9B946ACED137}" name="状態" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2895A640-55FB-4325-8D43-F7BCCB37AD6F}" name="成果物" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6E3B2D95-C5A2-47D7-B7BA-B1EF813A5829}" name="内容区分" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7D147178-867D-408D-BA20-A6AFD5178FEF}" name="構成区分" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F50BEED1-A486-4F01-A404-36252334F637}" name="タスク" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C845E535-7669-4F71-AB9E-9B946ACED137}" name="状態" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D9D3A499-79C9-4054-8EB1-F4A660542DF2}" name="備考" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{12B49D5F-85F8-4FD5-9BD5-56FF07F950CF}" name="開始予定日" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{2BDFDCC8-0E33-4603-8D9D-C7B4C5C58473}" name="完了予定日" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{3F7A8E10-D030-4B9F-9F6B-B6F6ABE69175}" name="開始日" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{EDD2A1F9-A73F-4D86-880D-11AE8B27E448}" name="完了日" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D9D3A499-79C9-4054-8EB1-F4A660542DF2}" name="備考" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{12B49D5F-85F8-4FD5-9BD5-56FF07F950CF}" name="開始予定日" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{2BDFDCC8-0E33-4603-8D9D-C7B4C5C58473}" name="完了予定日" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{3F7A8E10-D030-4B9F-9F6B-B6F6ABE69175}" name="開始日" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{EDD2A1F9-A73F-4D86-880D-11AE8B27E448}" name="完了日" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{4291AB89-2D21-4414-9B85-7BBB36F67076}" name="遅れ"/>
-    <tableColumn id="13" xr3:uid="{C395D242-CDC1-401F-B549-65938BFB7D74}" name="完了条件" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C395D242-CDC1-401F-B549-65938BFB7D74}" name="完了条件" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,7 +1325,9 @@
       <c r="G8" s="2">
         <v>44609</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>44609</v>
+      </c>
       <c r="I8" s="2">
         <v>44609</v>
       </c>
@@ -1428,7 +1430,7 @@
       </c>
       <c r="E11" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2">
@@ -1437,8 +1439,12 @@
       <c r="H11" s="2">
         <v>44610</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2">
+        <v>44610</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44610</v>
+      </c>
       <c r="K11" t="s">
         <v>15</v>
       </c>
@@ -1461,7 +1467,7 @@
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2">
@@ -1470,8 +1476,12 @@
       <c r="H12" s="2">
         <v>44610</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="2">
+        <v>44610</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44610</v>
+      </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
@@ -1494,7 +1504,7 @@
       </c>
       <c r="E13" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2">
@@ -1503,8 +1513,12 @@
       <c r="H13" s="2">
         <v>44610</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2">
+        <v>44610</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44610</v>
+      </c>
       <c r="K13" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1541,7 @@
       </c>
       <c r="E14" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2">
@@ -1536,8 +1550,12 @@
       <c r="H14" s="2">
         <v>44610</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2">
+        <v>44610</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44610</v>
+      </c>
       <c r="K14" t="s">
         <v>15</v>
       </c>
@@ -1560,7 +1578,7 @@
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
@@ -1569,8 +1587,12 @@
       <c r="H15" s="2">
         <v>44610</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2">
+        <v>44610</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44610</v>
+      </c>
       <c r="K15" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1615,7 @@
       </c>
       <c r="E16" t="str">
         <f>IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[開始日]]), "未着手", IF(ISBLANK(ネットワーク速度計測ツールWBS[[#This Row],[完了日]]), "未完了", "完了"))</f>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2">
@@ -1602,8 +1624,12 @@
       <c r="H16" s="2">
         <v>44610</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2">
+        <v>44610</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44610</v>
+      </c>
       <c r="K16" t="s">
         <v>15</v>
       </c>
@@ -1629,12 +1655,8 @@
         <v>未着手</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="2">
-        <v>44610</v>
-      </c>
-      <c r="H17" s="2">
-        <v>44610</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
@@ -1647,13 +1669,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"未完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"未着手"</formula>
     </cfRule>
   </conditionalFormatting>
